--- a/lib/seeds/PlanesMaster.xlsx
+++ b/lib/seeds/PlanesMaster.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="21012" windowHeight="8208"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="21012" windowHeight="8148" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -375,10 +375,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21847,18 +21859,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
